--- a/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
+++ b/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\bldgs\ECiCpCU\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB410E1-CE28-4C62-A3F3-3333A345A3C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="132" windowWidth="21072" windowHeight="12840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RFF Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="ECiCpCU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Resources for the Future</t>
   </si>
@@ -24,9 +38,6 @@
     <t>Impact of Carbon Price Policies on U.S. Industry</t>
   </si>
   <si>
-    <t>http://www.rff.org/documents/RFF-DP-08-37.pdf</t>
-  </si>
-  <si>
     <t>Source:</t>
   </si>
   <si>
@@ -105,9 +116,6 @@
     <t>other component</t>
   </si>
   <si>
-    <t>Our source data table includes only combusion-related CO2 emissions, not process emissions and</t>
-  </si>
-  <si>
     <t>not emissions of other gases, so these carbon intensities may be on the low side.</t>
   </si>
   <si>
@@ -129,15 +137,42 @@
     <t>See "cpi.xlsx" in the InputData folder for source information.</t>
   </si>
   <si>
-    <t>Embedded tons CO2/2012$</t>
+    <t>Embedded tons CO2e/2012$</t>
+  </si>
+  <si>
+    <t>https://media.rff.org/archive/files/sharepoint/WorkImages/Download/RFF-DP-08-37.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While there is an India data source for global warming potential of building component materials, </t>
+  </si>
+  <si>
+    <t>it is not available in value per currency unit. Hence, we use the US source.</t>
+  </si>
+  <si>
+    <t>India source is listed for future reference.</t>
+  </si>
+  <si>
+    <t>https://www.edgebuildings.com/wp-content/uploads/2017/12/IFC-India-Construction-Materials-Database-Methodology-Report.pdf</t>
+  </si>
+  <si>
+    <t>India Construction Materials Database of Embodied Energy and Global Warming Potential - Methodology Report</t>
+  </si>
+  <si>
+    <t>Page 67, Table 14 (Annex A)</t>
+  </si>
+  <si>
+    <t>International Finance Corporation</t>
+  </si>
+  <si>
+    <t>The source data table includes only combustion-related CO2 emissions, not process emissions and</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -289,23 +324,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,9 +425,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,6 +477,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,137 +669,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.109375" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>1.117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>1.117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>91.5</v>
@@ -735,13 +839,13 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>91.5</v>
@@ -749,13 +853,13 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>168.1</v>
@@ -763,7 +867,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>1197.3</v>
@@ -771,7 +875,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>5080.7</v>
@@ -779,13 +883,13 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>1197.3</v>
@@ -793,7 +897,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>1444.1</v>
@@ -801,13 +905,13 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>91.5</v>
@@ -815,7 +919,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>119.1</v>
@@ -823,13 +927,13 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>119.1</v>
@@ -837,7 +941,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>72.099999999999994</v>
@@ -849,76 +953,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10">
-        <f>'RFF Table 2'!B3/10^6/About!$A$19</f>
+        <f>'RFF Table 2'!B3/10^6/About!$A$22</f>
         <v>8.191584601611459E-5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10">
-        <f>'RFF Table 2'!B6/10^6/About!$A$19</f>
+        <f>'RFF Table 2'!B6/10^6/About!$A$22</f>
         <v>8.191584601611459E-5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10">
-        <f>AVERAGE('RFF Table 2'!B9:B11)/10^6/About!$A$19</f>
+        <f>AVERAGE('RFF Table 2'!B9:B11)/10^6/About!$A$22</f>
         <v>1.9236347358997314E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="10">
-        <f>AVERAGE('RFF Table 2'!B14:B15)/10^6/About!$A$19</f>
+        <f>AVERAGE('RFF Table 2'!B14:B15)/10^6/About!$A$22</f>
         <v>1.1823634735899729E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10">
-        <f>AVERAGE('RFF Table 2'!B18:B19)/10^6/About!$A$19</f>
+        <f>AVERAGE('RFF Table 2'!B18:B19)/10^6/About!$A$22</f>
         <v>9.427036705461056E-5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10">
-        <f>AVERAGE('RFF Table 2'!B22:B23)/10^6/About!$A$19</f>
+        <f>AVERAGE('RFF Table 2'!B22:B23)/10^6/About!$A$22</f>
         <v>8.5586392121754694E-5</v>
       </c>
     </row>
